--- a/StructureDefinition-motivo-solicitud-hospitalizacion.xlsx
+++ b/StructureDefinition-motivo-solicitud-hospitalizacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-motivo-solicitud-hospitalizacion.xlsx
+++ b/StructureDefinition-motivo-solicitud-hospitalizacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,6 +140,10 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ext-sol-hosp-1:Si el motivo de hospitalización es 'Otro', debe existir la extensión para el detalle 'motivoDet' {extension('motivo').value.code = '99' implies extension('motivoDet').exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -786,41 +790,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.62109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.72265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.53515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.3671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="169.35546875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="170.84375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.44140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.5625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.21484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="20.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -920,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -928,10 +932,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -942,7 +946,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -954,13 +958,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1011,30 +1015,30 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1042,7 +1046,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>39</v>
@@ -1057,13 +1061,13 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1102,19 +1106,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -1126,7 +1130,7 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1134,26 +1138,26 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>37</v>
@@ -1162,13 +1166,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1219,7 +1223,7 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
@@ -1231,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -1239,10 +1243,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1253,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -1265,13 +1269,13 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1322,30 +1326,30 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1368,13 +1372,13 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1413,19 +1417,19 @@
         <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
@@ -1437,7 +1441,7 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -1445,10 +1449,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1456,10 +1460,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>37</v>
@@ -1471,16 +1475,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1488,7 +1492,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>37</v>
@@ -1530,13 +1534,13 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
@@ -1545,15 +1549,15 @@
         <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1561,13 +1565,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>37</v>
@@ -1576,13 +1580,13 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1633,30 +1637,30 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1667,7 +1671,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>37</v>
@@ -1679,13 +1683,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1736,34 +1740,34 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -1782,16 +1786,16 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1829,19 +1833,19 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -1853,18 +1857,18 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1875,7 +1879,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -1884,22 +1888,22 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>37</v>
@@ -1948,30 +1952,30 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1982,7 +1986,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -1991,19 +1995,19 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2053,30 +2057,30 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2084,32 +2088,32 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -2134,11 +2138,11 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -2156,30 +2160,30 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2187,32 +2191,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -2261,30 +2265,30 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2295,7 +2299,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -2304,22 +2308,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -2368,33 +2372,33 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>37</v>
@@ -2404,10 +2408,10 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>37</v>
@@ -2416,13 +2420,13 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2473,7 +2477,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -2485,7 +2489,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2507,7 +2511,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -2519,13 +2523,13 @@
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2576,30 +2580,30 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2622,13 +2626,13 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2667,19 +2671,19 @@
         <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -2691,7 +2695,7 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -2699,10 +2703,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2710,10 +2714,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -2725,16 +2729,16 @@
         <v>37</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2742,7 +2746,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>37</v>
@@ -2784,13 +2788,13 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
@@ -2799,15 +2803,15 @@
         <v>37</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2815,13 +2819,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>37</v>
@@ -2830,13 +2834,13 @@
         <v>37</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2887,30 +2891,30 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2918,10 +2922,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -2933,16 +2937,16 @@
         <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -2992,13 +2996,13 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
@@ -3007,15 +3011,15 @@
         <v>37</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3038,13 +3042,13 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3095,22 +3099,22 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
